--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-P2ry12.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-P2ry12.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H2">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I2">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J2">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.90731000000001</v>
+        <v>12.19250666666667</v>
       </c>
       <c r="N2">
-        <v>74.72193000000001</v>
+        <v>36.57752</v>
       </c>
       <c r="O2">
-        <v>0.362387837689807</v>
+        <v>0.2503750524168468</v>
       </c>
       <c r="P2">
-        <v>0.362387837689807</v>
+        <v>0.2503750524168468</v>
       </c>
       <c r="Q2">
-        <v>2662.058165190464</v>
+        <v>2578.245342076445</v>
       </c>
       <c r="R2">
-        <v>23958.52348671417</v>
+        <v>23204.208078688</v>
       </c>
       <c r="S2">
-        <v>0.05467520351062584</v>
+        <v>0.06061735940904953</v>
       </c>
       <c r="T2">
-        <v>0.05467520351062585</v>
+        <v>0.06061735940904953</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H3">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I3">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J3">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.4503323333333333</v>
+        <v>0.03913333333333333</v>
       </c>
       <c r="N3">
-        <v>1.350997</v>
+        <v>0.1174</v>
       </c>
       <c r="O3">
-        <v>0.006552090953156805</v>
+        <v>0.0008036091882046079</v>
       </c>
       <c r="P3">
-        <v>0.006552090953156805</v>
+        <v>0.000803609188204608</v>
       </c>
       <c r="Q3">
-        <v>48.13088466796589</v>
+        <v>8.275192062222223</v>
       </c>
       <c r="R3">
-        <v>433.177962011693</v>
+        <v>74.47672856000001</v>
       </c>
       <c r="S3">
-        <v>0.0009885456106024692</v>
+        <v>0.0001945587889671693</v>
       </c>
       <c r="T3">
-        <v>0.0009885456106024694</v>
+        <v>0.0001945587889671693</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H4">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I4">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J4">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.81668766666667</v>
+        <v>23.13337333333333</v>
       </c>
       <c r="N4">
-        <v>53.450063</v>
+        <v>69.40011999999999</v>
       </c>
       <c r="O4">
-        <v>0.2592231324184741</v>
+        <v>0.4750474795102416</v>
       </c>
       <c r="P4">
-        <v>0.2592231324184741</v>
+        <v>0.4750474795102416</v>
       </c>
       <c r="Q4">
-        <v>1904.222450344827</v>
+        <v>4891.817054014221</v>
       </c>
       <c r="R4">
-        <v>17138.00205310345</v>
+        <v>44026.35348612799</v>
       </c>
       <c r="S4">
-        <v>0.03911024611089102</v>
+        <v>0.1150119531633409</v>
       </c>
       <c r="T4">
-        <v>0.03911024611089103</v>
+        <v>0.1150119531633409</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H5">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I5">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J5">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.556757</v>
+        <v>13.33195766666667</v>
       </c>
       <c r="N5">
-        <v>76.670271</v>
+        <v>39.995873</v>
       </c>
       <c r="O5">
-        <v>0.3718369389385621</v>
+        <v>0.273773858884707</v>
       </c>
       <c r="P5">
-        <v>0.3718369389385621</v>
+        <v>0.273773858884707</v>
       </c>
       <c r="Q5">
-        <v>2731.470144613711</v>
+        <v>2819.195321731245</v>
       </c>
       <c r="R5">
-        <v>24583.2313015234</v>
+        <v>25372.7578955812</v>
       </c>
       <c r="S5">
-        <v>0.05610083505792521</v>
+        <v>0.0662823561717607</v>
       </c>
       <c r="T5">
-        <v>0.05610083505792523</v>
+        <v>0.06628235617176069</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>231.698769</v>
       </c>
       <c r="I6">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J6">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.90731000000001</v>
+        <v>12.19250666666667</v>
       </c>
       <c r="N6">
-        <v>74.72193000000001</v>
+        <v>36.57752</v>
       </c>
       <c r="O6">
-        <v>0.362387837689807</v>
+        <v>0.2503750524168468</v>
       </c>
       <c r="P6">
-        <v>0.362387837689807</v>
+        <v>0.2503750524168468</v>
       </c>
       <c r="Q6">
-        <v>1923.66435536713</v>
+        <v>941.6629285636533</v>
       </c>
       <c r="R6">
-        <v>17312.97919830417</v>
+        <v>8474.966357072881</v>
       </c>
       <c r="S6">
-        <v>0.03950955748869205</v>
+        <v>0.02213952227562238</v>
       </c>
       <c r="T6">
-        <v>0.03950955748869206</v>
+        <v>0.02213952227562238</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>231.698769</v>
       </c>
       <c r="I7">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J7">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4503323333333333</v>
+        <v>0.03913333333333333</v>
       </c>
       <c r="N7">
-        <v>1.350997</v>
+        <v>0.1174</v>
       </c>
       <c r="O7">
-        <v>0.006552090953156805</v>
+        <v>0.0008036091882046079</v>
       </c>
       <c r="P7">
-        <v>0.006552090953156805</v>
+        <v>0.000803609188204608</v>
       </c>
       <c r="Q7">
-        <v>34.78048242474367</v>
+        <v>3.022381720066666</v>
       </c>
       <c r="R7">
-        <v>313.024341822693</v>
+        <v>27.2014354806</v>
       </c>
       <c r="S7">
-        <v>0.0007143457568420742</v>
+        <v>7.105948995880715E-05</v>
       </c>
       <c r="T7">
-        <v>0.0007143457568420743</v>
+        <v>7.105948995880717E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>231.698769</v>
       </c>
       <c r="I8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.81668766666667</v>
+        <v>23.13337333333333</v>
       </c>
       <c r="N8">
-        <v>53.450063</v>
+        <v>69.40011999999999</v>
       </c>
       <c r="O8">
-        <v>0.2592231324184741</v>
+        <v>0.4750474795102416</v>
       </c>
       <c r="P8">
-        <v>0.2592231324184741</v>
+        <v>0.4750474795102416</v>
       </c>
       <c r="Q8">
-        <v>1376.034866674716</v>
+        <v>1786.658041383586</v>
       </c>
       <c r="R8">
-        <v>12384.31380007245</v>
+        <v>16079.92237245228</v>
       </c>
       <c r="S8">
-        <v>0.02826196187481655</v>
+        <v>0.04200627879284507</v>
       </c>
       <c r="T8">
-        <v>0.02826196187481656</v>
+        <v>0.04200627879284507</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>231.698769</v>
       </c>
       <c r="I9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.556757</v>
+        <v>13.33195766666667</v>
       </c>
       <c r="N9">
-        <v>76.670271</v>
+        <v>39.995873</v>
       </c>
       <c r="O9">
-        <v>0.3718369389385621</v>
+        <v>0.273773858884707</v>
       </c>
       <c r="P9">
-        <v>0.3718369389385621</v>
+        <v>0.273773858884707</v>
       </c>
       <c r="Q9">
-        <v>1973.823045510711</v>
+        <v>1029.666059908926</v>
       </c>
       <c r="R9">
-        <v>17764.4074095964</v>
+        <v>9266.994539180338</v>
       </c>
       <c r="S9">
-        <v>0.04053975157959783</v>
+        <v>0.02420857185551301</v>
       </c>
       <c r="T9">
-        <v>0.04053975157959784</v>
+        <v>0.024208571855513</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H10">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I10">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J10">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.90731000000001</v>
+        <v>12.19250666666667</v>
       </c>
       <c r="N10">
-        <v>74.72193000000001</v>
+        <v>36.57752</v>
       </c>
       <c r="O10">
-        <v>0.362387837689807</v>
+        <v>0.2503750524168468</v>
       </c>
       <c r="P10">
-        <v>0.362387837689807</v>
+        <v>0.2503750524168468</v>
       </c>
       <c r="Q10">
-        <v>3404.239895323472</v>
+        <v>2125.284424655529</v>
       </c>
       <c r="R10">
-        <v>30638.15905791124</v>
+        <v>19127.55982189976</v>
       </c>
       <c r="S10">
-        <v>0.06991864847644508</v>
+        <v>0.04996775431466268</v>
       </c>
       <c r="T10">
-        <v>0.06991864847644508</v>
+        <v>0.04996775431466267</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H11">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I11">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J11">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.4503323333333333</v>
+        <v>0.03913333333333333</v>
       </c>
       <c r="N11">
-        <v>1.350997</v>
+        <v>0.1174</v>
       </c>
       <c r="O11">
-        <v>0.006552090953156805</v>
+        <v>0.0008036091882046079</v>
       </c>
       <c r="P11">
-        <v>0.006552090953156805</v>
+        <v>0.000803609188204608</v>
       </c>
       <c r="Q11">
-        <v>61.54977375266301</v>
+        <v>6.821358896244444</v>
       </c>
       <c r="R11">
-        <v>553.947963773967</v>
+        <v>61.3922300662</v>
       </c>
       <c r="S11">
-        <v>0.001264152094783042</v>
+        <v>0.0001603775859200241</v>
       </c>
       <c r="T11">
-        <v>0.001264152094783042</v>
+        <v>0.0001603775859200241</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H12">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I12">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J12">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.81668766666667</v>
+        <v>23.13337333333333</v>
       </c>
       <c r="N12">
-        <v>53.450063</v>
+        <v>69.40011999999999</v>
       </c>
       <c r="O12">
-        <v>0.2592231324184741</v>
+        <v>0.4750474795102416</v>
       </c>
       <c r="P12">
-        <v>0.2592231324184741</v>
+        <v>0.4750474795102416</v>
       </c>
       <c r="Q12">
-        <v>2435.119607753077</v>
+        <v>4032.394599339283</v>
       </c>
       <c r="R12">
-        <v>21916.07646977769</v>
+        <v>36291.55139405355</v>
       </c>
       <c r="S12">
-        <v>0.05001418145838634</v>
+        <v>0.09480599410698448</v>
       </c>
       <c r="T12">
-        <v>0.05001418145838635</v>
+        <v>0.09480599410698447</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H13">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I13">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J13">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.556757</v>
+        <v>13.33195766666667</v>
       </c>
       <c r="N13">
-        <v>76.670271</v>
+        <v>39.995873</v>
       </c>
       <c r="O13">
-        <v>0.3718369389385621</v>
+        <v>0.273773858884707</v>
       </c>
       <c r="P13">
-        <v>0.3718369389385621</v>
+        <v>0.273773858884707</v>
       </c>
       <c r="Q13">
-        <v>3493.00393235911</v>
+        <v>2323.90293101885</v>
       </c>
       <c r="R13">
-        <v>31437.03539123198</v>
+        <v>20915.12637916965</v>
       </c>
       <c r="S13">
-        <v>0.0717417460529028</v>
+        <v>0.05463749198044184</v>
       </c>
       <c r="T13">
-        <v>0.07174174605290283</v>
+        <v>0.05463749198044182</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H14">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I14">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J14">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.90731000000001</v>
+        <v>12.19250666666667</v>
       </c>
       <c r="N14">
-        <v>74.72193000000001</v>
+        <v>36.57752</v>
       </c>
       <c r="O14">
-        <v>0.362387837689807</v>
+        <v>0.2503750524168468</v>
       </c>
       <c r="P14">
-        <v>0.362387837689807</v>
+        <v>0.2503750524168468</v>
       </c>
       <c r="Q14">
-        <v>1134.544517256277</v>
+        <v>347.9101092858222</v>
       </c>
       <c r="R14">
-        <v>10210.90065530649</v>
+        <v>3131.1909835724</v>
       </c>
       <c r="S14">
-        <v>0.02330206499015903</v>
+        <v>0.008179746043732049</v>
       </c>
       <c r="T14">
-        <v>0.02330206499015903</v>
+        <v>0.008179746043732049</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H15">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I15">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J15">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.4503323333333333</v>
+        <v>0.03913333333333333</v>
       </c>
       <c r="N15">
-        <v>1.350997</v>
+        <v>0.1174</v>
       </c>
       <c r="O15">
-        <v>0.006552090953156805</v>
+        <v>0.0008036091882046079</v>
       </c>
       <c r="P15">
-        <v>0.006552090953156805</v>
+        <v>0.000803609188204608</v>
       </c>
       <c r="Q15">
-        <v>20.51293695411345</v>
+        <v>1.116659818111111</v>
       </c>
       <c r="R15">
-        <v>184.616432587021</v>
+        <v>10.049938363</v>
       </c>
       <c r="S15">
-        <v>0.0004213089771036411</v>
+        <v>2.625388997215072E-05</v>
       </c>
       <c r="T15">
-        <v>0.0004213089771036412</v>
+        <v>2.625388997215073E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H16">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I16">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J16">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.81668766666667</v>
+        <v>23.13337333333333</v>
       </c>
       <c r="N16">
-        <v>53.450063</v>
+        <v>69.40011999999999</v>
       </c>
       <c r="O16">
-        <v>0.2592231324184741</v>
+        <v>0.4750474795102416</v>
       </c>
       <c r="P16">
-        <v>0.2592231324184741</v>
+        <v>0.4750474795102416</v>
       </c>
       <c r="Q16">
-        <v>811.5619594361733</v>
+        <v>660.1049861677109</v>
       </c>
       <c r="R16">
-        <v>7304.057634925559</v>
+        <v>5940.944875509398</v>
       </c>
       <c r="S16">
-        <v>0.01666842440705284</v>
+        <v>0.01551978802839912</v>
       </c>
       <c r="T16">
-        <v>0.01666842440705285</v>
+        <v>0.01551978802839912</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H17">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I17">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J17">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.556757</v>
+        <v>13.33195766666667</v>
       </c>
       <c r="N17">
-        <v>76.670271</v>
+        <v>39.995873</v>
       </c>
       <c r="O17">
-        <v>0.3718369389385621</v>
+        <v>0.273773858884707</v>
       </c>
       <c r="P17">
-        <v>0.3718369389385621</v>
+        <v>0.273773858884707</v>
       </c>
       <c r="Q17">
-        <v>1164.127259555567</v>
+        <v>380.4240568089872</v>
       </c>
       <c r="R17">
-        <v>10477.1453360001</v>
+        <v>3423.816511280885</v>
       </c>
       <c r="S17">
-        <v>0.02390965594244026</v>
+        <v>0.00894418440444731</v>
       </c>
       <c r="T17">
-        <v>0.02390965594244026</v>
+        <v>0.008944184404447308</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H18">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I18">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J18">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.90731000000001</v>
+        <v>12.19250666666667</v>
       </c>
       <c r="N18">
-        <v>74.72193000000001</v>
+        <v>36.57752</v>
       </c>
       <c r="O18">
-        <v>0.362387837689807</v>
+        <v>0.2503750524168468</v>
       </c>
       <c r="P18">
-        <v>0.362387837689807</v>
+        <v>0.2503750524168468</v>
       </c>
       <c r="Q18">
-        <v>4946.547198519975</v>
+        <v>2808.287989951733</v>
       </c>
       <c r="R18">
-        <v>44518.92478667977</v>
+        <v>25274.5919095656</v>
       </c>
       <c r="S18">
-        <v>0.1015956293857484</v>
+        <v>0.06602591290785474</v>
       </c>
       <c r="T18">
-        <v>0.1015956293857484</v>
+        <v>0.06602591290785474</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H19">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I19">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J19">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.4503323333333333</v>
+        <v>0.03913333333333333</v>
       </c>
       <c r="N19">
-        <v>1.350997</v>
+        <v>0.1174</v>
       </c>
       <c r="O19">
-        <v>0.006552090953156805</v>
+        <v>0.0008036091882046079</v>
       </c>
       <c r="P19">
-        <v>0.006552090953156805</v>
+        <v>0.000803609188204608</v>
       </c>
       <c r="Q19">
-        <v>89.43519560534489</v>
+        <v>9.013541924666667</v>
       </c>
       <c r="R19">
-        <v>804.916760448104</v>
+        <v>81.121877322</v>
       </c>
       <c r="S19">
-        <v>0.001836882298319354</v>
+        <v>0.000211918199358025</v>
       </c>
       <c r="T19">
-        <v>0.001836882298319354</v>
+        <v>0.000211918199358025</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H20">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I20">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J20">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.81668766666667</v>
+        <v>23.13337333333333</v>
       </c>
       <c r="N20">
-        <v>53.450063</v>
+        <v>69.40011999999999</v>
       </c>
       <c r="O20">
-        <v>0.2592231324184741</v>
+        <v>0.4750474795102416</v>
       </c>
       <c r="P20">
-        <v>0.2592231324184741</v>
+        <v>0.4750474795102416</v>
       </c>
       <c r="Q20">
-        <v>3538.362290606868</v>
+        <v>5328.286977827066</v>
       </c>
       <c r="R20">
-        <v>31845.26061546182</v>
+        <v>47954.58280044359</v>
       </c>
       <c r="S20">
-        <v>0.07267334758608217</v>
+        <v>0.125273837015595</v>
       </c>
       <c r="T20">
-        <v>0.07267334758608218</v>
+        <v>0.125273837015595</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H21">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I21">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J21">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>25.556757</v>
+        <v>13.33195766666667</v>
       </c>
       <c r="N21">
-        <v>76.670271</v>
+        <v>39.995873</v>
       </c>
       <c r="O21">
-        <v>0.3718369389385621</v>
+        <v>0.273773858884707</v>
       </c>
       <c r="P21">
-        <v>0.3718369389385621</v>
+        <v>0.273773858884707</v>
       </c>
       <c r="Q21">
-        <v>5075.526210642808</v>
+        <v>3070.736610725244</v>
       </c>
       <c r="R21">
-        <v>45679.73589578527</v>
+        <v>27636.62949652719</v>
       </c>
       <c r="S21">
-        <v>0.1042446901120045</v>
+        <v>0.07219636616620316</v>
       </c>
       <c r="T21">
-        <v>0.1042446901120045</v>
+        <v>0.07219636616620315</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H22">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I22">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J22">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.90731000000001</v>
+        <v>12.19250666666667</v>
       </c>
       <c r="N22">
-        <v>74.72193000000001</v>
+        <v>36.57752</v>
       </c>
       <c r="O22">
-        <v>0.362387837689807</v>
+        <v>0.2503750524168468</v>
       </c>
       <c r="P22">
-        <v>0.362387837689807</v>
+        <v>0.2503750524168468</v>
       </c>
       <c r="Q22">
-        <v>3573.096056103454</v>
+        <v>1847.841025510604</v>
       </c>
       <c r="R22">
-        <v>32157.86450493108</v>
+        <v>16630.56922959544</v>
       </c>
       <c r="S22">
-        <v>0.07338673383813663</v>
+        <v>0.04344475746592538</v>
       </c>
       <c r="T22">
-        <v>0.07338673383813664</v>
+        <v>0.04344475746592538</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H23">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I23">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J23">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.4503323333333333</v>
+        <v>0.03913333333333333</v>
       </c>
       <c r="N23">
-        <v>1.350997</v>
+        <v>0.1174</v>
       </c>
       <c r="O23">
-        <v>0.006552090953156805</v>
+        <v>0.0008036091882046079</v>
       </c>
       <c r="P23">
-        <v>0.006552090953156805</v>
+        <v>0.000803609188204608</v>
       </c>
       <c r="Q23">
-        <v>64.60274851717021</v>
+        <v>5.930870556422222</v>
       </c>
       <c r="R23">
-        <v>581.424736654532</v>
+        <v>53.37783500779999</v>
       </c>
       <c r="S23">
-        <v>0.001326856215506225</v>
+        <v>0.0001394412340284317</v>
       </c>
       <c r="T23">
-        <v>0.001326856215506225</v>
+        <v>0.0001394412340284317</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H24">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I24">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J24">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>17.81668766666667</v>
+        <v>23.13337333333333</v>
       </c>
       <c r="N24">
-        <v>53.450063</v>
+        <v>69.40011999999999</v>
       </c>
       <c r="O24">
-        <v>0.2592231324184741</v>
+        <v>0.4750474795102416</v>
       </c>
       <c r="P24">
-        <v>0.2592231324184741</v>
+        <v>0.4750474795102416</v>
       </c>
       <c r="Q24">
-        <v>2555.905733481203</v>
+        <v>3505.989167974181</v>
       </c>
       <c r="R24">
-        <v>23003.15160133082</v>
+        <v>31553.90251176763</v>
       </c>
       <c r="S24">
-        <v>0.05249497098124517</v>
+        <v>0.08242962840307699</v>
       </c>
       <c r="T24">
-        <v>0.05249497098124518</v>
+        <v>0.08242962840307699</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H25">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I25">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J25">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.556757</v>
+        <v>13.33195766666667</v>
       </c>
       <c r="N25">
-        <v>76.670271</v>
+        <v>39.995873</v>
       </c>
       <c r="O25">
-        <v>0.3718369389385621</v>
+        <v>0.273773858884707</v>
       </c>
       <c r="P25">
-        <v>0.3718369389385621</v>
+        <v>0.273773858884707</v>
       </c>
       <c r="Q25">
-        <v>3666.262942224364</v>
+        <v>2020.531052419954</v>
       </c>
       <c r="R25">
-        <v>32996.36648001927</v>
+        <v>18184.77947177958</v>
       </c>
       <c r="S25">
-        <v>0.07530026019369152</v>
+        <v>0.04750488830634099</v>
       </c>
       <c r="T25">
-        <v>0.07530026019369154</v>
+        <v>0.04750488830634098</v>
       </c>
     </row>
   </sheetData>
